--- a/StructureDefinition-ext-R5-PrimitiveType.xlsx
+++ b/StructureDefinition-ext-R5-PrimitiveType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-PrimitiveType.xlsx
+++ b/StructureDefinition-ext-R5-PrimitiveType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-PrimitiveType.xlsx
+++ b/StructureDefinition-ext-R5-PrimitiveType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-PrimitiveType.xlsx
+++ b/StructureDefinition-ext-R5-PrimitiveType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
